--- a/fuentes/contenidos/grado07/guion03/Escaleta MA_07_03_CO.xlsx
+++ b/fuentes/contenidos/grado07/guion03/Escaleta MA_07_03_CO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lzambrano\Desktop\ejemplos escalestas y cronogramas\Escaletas\Escaletas Matemáticas 7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Matematicas\fuentes\contenidos\grado07\guion03\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1528,6 +1528,237 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1546,70 +1777,31 @@
     <xf numFmtId="0" fontId="7" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1618,208 +1810,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6414,8 +6414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="V15" sqref="V15"/>
+    <sheetView tabSelected="1" topLeftCell="K3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6455,125 +6455,125 @@
       <c r="Q1" s="32"/>
       <c r="R1" s="31"/>
     </row>
-    <row r="2" spans="1:24" s="90" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+    <row r="2" spans="1:24" s="62" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="69" t="s">
+      <c r="D2" s="133" t="s">
         <v>296</v>
       </c>
-      <c r="E2" s="67" t="s">
+      <c r="E2" s="124" t="s">
         <v>297</v>
       </c>
-      <c r="F2" s="70" t="s">
+      <c r="F2" s="136" t="s">
         <v>298</v>
       </c>
-      <c r="G2" s="71" t="s">
+      <c r="G2" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="70" t="s">
+      <c r="H2" s="136" t="s">
         <v>299</v>
       </c>
-      <c r="I2" s="70" t="s">
+      <c r="I2" s="136" t="s">
         <v>300</v>
       </c>
-      <c r="J2" s="72" t="s">
+      <c r="J2" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="73" t="s">
+      <c r="K2" s="126" t="s">
         <v>301</v>
       </c>
-      <c r="L2" s="79" t="s">
+      <c r="L2" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="74" t="s">
+      <c r="M2" s="130" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="74"/>
-      <c r="O2" s="75" t="s">
+      <c r="N2" s="130"/>
+      <c r="O2" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="P2" s="62" t="s">
+      <c r="P2" s="112" t="s">
         <v>302</v>
       </c>
-      <c r="Q2" s="76" t="s">
+      <c r="Q2" s="114" t="s">
         <v>121</v>
       </c>
-      <c r="R2" s="77" t="s">
+      <c r="R2" s="116" t="s">
         <v>122</v>
       </c>
-      <c r="S2" s="76" t="s">
+      <c r="S2" s="114" t="s">
         <v>123</v>
       </c>
-      <c r="T2" s="78" t="s">
+      <c r="T2" s="115" t="s">
         <v>124</v>
       </c>
-      <c r="U2" s="76" t="s">
+      <c r="U2" s="114" t="s">
         <v>125</v>
       </c>
-      <c r="X2" s="79" t="s">
+      <c r="X2" s="110" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="90" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="66"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="85" t="s">
+    <row r="3" spans="1:24" s="62" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="125"/>
+      <c r="B3" s="124"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="N3" s="85" t="s">
+      <c r="N3" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="O3" s="75"/>
-      <c r="P3" s="86"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="77"/>
-      <c r="S3" s="76"/>
-      <c r="T3" s="78"/>
-      <c r="U3" s="76"/>
-      <c r="X3" s="87"/>
-    </row>
-    <row r="4" spans="1:24" s="95" customFormat="1" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="O3" s="123"/>
+      <c r="P3" s="113"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="116"/>
+      <c r="S3" s="114"/>
+      <c r="T3" s="115"/>
+      <c r="U3" s="114"/>
+      <c r="X3" s="111"/>
+    </row>
+    <row r="4" spans="1:24" s="67" customFormat="1" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="63" t="s">
         <v>226</v>
       </c>
-      <c r="D4" s="92" t="s">
+      <c r="D4" s="64" t="s">
         <v>229</v>
       </c>
-      <c r="E4" s="88"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="124" t="s">
+      <c r="E4" s="60"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="96" t="s">
         <v>229</v>
       </c>
-      <c r="H4" s="118">
+      <c r="H4" s="90">
         <v>1</v>
       </c>
-      <c r="I4" s="111" t="s">
+      <c r="I4" s="83" t="s">
         <v>206</v>
       </c>
-      <c r="J4" s="93" t="s">
+      <c r="J4" s="65" t="s">
         <v>227</v>
       </c>
       <c r="K4" s="35" t="s">
@@ -6586,56 +6586,56 @@
         <v>89</v>
       </c>
       <c r="N4" s="37"/>
-      <c r="O4" s="94" t="s">
+      <c r="O4" s="66" t="s">
         <v>228</v>
       </c>
-      <c r="P4" s="111" t="s">
+      <c r="P4" s="83" t="s">
         <v>206</v>
       </c>
-      <c r="Q4" s="128">
+      <c r="Q4" s="100">
         <v>6</v>
       </c>
-      <c r="R4" s="129" t="s">
+      <c r="R4" s="101" t="s">
         <v>209</v>
       </c>
-      <c r="S4" s="128" t="s">
+      <c r="S4" s="100" t="s">
         <v>210</v>
       </c>
-      <c r="T4" s="130" t="s">
+      <c r="T4" s="102" t="s">
         <v>211</v>
       </c>
-      <c r="U4" s="128" t="s">
+      <c r="U4" s="100" t="s">
         <v>212</v>
       </c>
       <c r="X4" s="34" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="95" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" s="67" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="C5" s="91" t="s">
+      <c r="C5" s="63" t="s">
         <v>226</v>
       </c>
-      <c r="D5" s="92" t="s">
+      <c r="D5" s="64" t="s">
         <v>229</v>
       </c>
-      <c r="E5" s="88"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="124" t="s">
+      <c r="E5" s="60"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="96" t="s">
         <v>313</v>
       </c>
-      <c r="H5" s="118">
+      <c r="H5" s="90">
         <v>2</v>
       </c>
-      <c r="I5" s="111" t="s">
+      <c r="I5" s="83" t="s">
         <v>207</v>
       </c>
-      <c r="J5" s="93" t="s">
+      <c r="J5" s="65" t="s">
         <v>312</v>
       </c>
       <c r="K5" s="35" t="s">
@@ -6648,58 +6648,58 @@
       <c r="N5" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="O5" s="94" t="s">
+      <c r="O5" s="66" t="s">
         <v>310</v>
       </c>
-      <c r="P5" s="112" t="s">
+      <c r="P5" s="84" t="s">
         <v>207</v>
       </c>
-      <c r="Q5" s="131">
+      <c r="Q5" s="103">
         <v>6</v>
       </c>
-      <c r="R5" s="132" t="s">
+      <c r="R5" s="104" t="s">
         <v>214</v>
       </c>
-      <c r="S5" s="131" t="s">
+      <c r="S5" s="103" t="s">
         <v>215</v>
       </c>
-      <c r="T5" s="133" t="s">
+      <c r="T5" s="105" t="s">
         <v>311</v>
       </c>
-      <c r="U5" s="131" t="s">
+      <c r="U5" s="103" t="s">
         <v>216</v>
       </c>
       <c r="X5" s="34" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="95" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" s="67" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="C6" s="91" t="s">
+      <c r="C6" s="63" t="s">
         <v>226</v>
       </c>
-      <c r="D6" s="92" t="s">
+      <c r="D6" s="64" t="s">
         <v>229</v>
       </c>
-      <c r="E6" s="96" t="s">
+      <c r="E6" s="68" t="s">
         <v>230</v>
       </c>
-      <c r="F6" s="115"/>
-      <c r="G6" s="125" t="s">
+      <c r="F6" s="87"/>
+      <c r="G6" s="97" t="s">
         <v>231</v>
       </c>
-      <c r="H6" s="118">
+      <c r="H6" s="90">
         <v>3</v>
       </c>
-      <c r="I6" s="119" t="s">
+      <c r="I6" s="91" t="s">
         <v>206</v>
       </c>
-      <c r="J6" s="97" t="s">
+      <c r="J6" s="69" t="s">
         <v>232</v>
       </c>
       <c r="K6" s="35" t="s">
@@ -6712,58 +6712,58 @@
         <v>91</v>
       </c>
       <c r="N6" s="37"/>
-      <c r="O6" s="98" t="s">
+      <c r="O6" s="70" t="s">
         <v>314</v>
       </c>
-      <c r="P6" s="112" t="s">
+      <c r="P6" s="84" t="s">
         <v>206</v>
       </c>
-      <c r="Q6" s="131">
+      <c r="Q6" s="103">
         <v>6</v>
       </c>
-      <c r="R6" s="132" t="s">
+      <c r="R6" s="104" t="s">
         <v>209</v>
       </c>
-      <c r="S6" s="131" t="s">
+      <c r="S6" s="103" t="s">
         <v>210</v>
       </c>
-      <c r="T6" s="133" t="s">
+      <c r="T6" s="105" t="s">
         <v>279</v>
       </c>
-      <c r="U6" s="131" t="s">
+      <c r="U6" s="103" t="s">
         <v>212</v>
       </c>
       <c r="X6" s="34" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="95" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" s="67" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="88" t="s">
+      <c r="B7" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="C7" s="91" t="s">
+      <c r="C7" s="63" t="s">
         <v>226</v>
       </c>
-      <c r="D7" s="92" t="s">
+      <c r="D7" s="64" t="s">
         <v>229</v>
       </c>
-      <c r="E7" s="96" t="s">
+      <c r="E7" s="68" t="s">
         <v>230</v>
       </c>
-      <c r="F7" s="115"/>
-      <c r="G7" s="125" t="s">
+      <c r="F7" s="87"/>
+      <c r="G7" s="97" t="s">
         <v>233</v>
       </c>
-      <c r="H7" s="118">
+      <c r="H7" s="90">
         <v>4</v>
       </c>
-      <c r="I7" s="112" t="s">
+      <c r="I7" s="84" t="s">
         <v>207</v>
       </c>
-      <c r="J7" s="99" t="s">
+      <c r="J7" s="71" t="s">
         <v>234</v>
       </c>
       <c r="K7" s="35" t="s">
@@ -6776,58 +6776,58 @@
       <c r="N7" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="O7" s="98" t="s">
+      <c r="O7" s="70" t="s">
         <v>315</v>
       </c>
-      <c r="P7" s="112" t="s">
+      <c r="P7" s="84" t="s">
         <v>206</v>
       </c>
-      <c r="Q7" s="131">
+      <c r="Q7" s="103">
         <v>6</v>
       </c>
-      <c r="R7" s="132" t="s">
+      <c r="R7" s="104" t="s">
         <v>214</v>
       </c>
-      <c r="S7" s="131" t="s">
+      <c r="S7" s="103" t="s">
         <v>215</v>
       </c>
-      <c r="T7" s="133" t="s">
+      <c r="T7" s="105" t="s">
         <v>284</v>
       </c>
-      <c r="U7" s="131" t="s">
+      <c r="U7" s="103" t="s">
         <v>216</v>
       </c>
       <c r="X7" s="38" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:24" s="95" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" s="67" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="88" t="s">
+      <c r="B8" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="C8" s="91" t="s">
+      <c r="C8" s="63" t="s">
         <v>226</v>
       </c>
-      <c r="D8" s="92" t="s">
+      <c r="D8" s="64" t="s">
         <v>229</v>
       </c>
-      <c r="E8" s="96" t="s">
+      <c r="E8" s="68" t="s">
         <v>230</v>
       </c>
-      <c r="F8" s="115"/>
-      <c r="G8" s="125" t="s">
+      <c r="F8" s="87"/>
+      <c r="G8" s="97" t="s">
         <v>235</v>
       </c>
-      <c r="H8" s="118">
+      <c r="H8" s="90">
         <v>5</v>
       </c>
-      <c r="I8" s="112" t="s">
+      <c r="I8" s="84" t="s">
         <v>207</v>
       </c>
-      <c r="J8" s="99" t="s">
+      <c r="J8" s="71" t="s">
         <v>236</v>
       </c>
       <c r="K8" s="35" t="s">
@@ -6840,58 +6840,58 @@
       <c r="N8" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="O8" s="98" t="s">
+      <c r="O8" s="70" t="s">
         <v>316</v>
       </c>
-      <c r="P8" s="112" t="s">
+      <c r="P8" s="84" t="s">
         <v>206</v>
       </c>
-      <c r="Q8" s="131">
+      <c r="Q8" s="103">
         <v>6</v>
       </c>
-      <c r="R8" s="132" t="s">
+      <c r="R8" s="104" t="s">
         <v>214</v>
       </c>
-      <c r="S8" s="131" t="s">
+      <c r="S8" s="103" t="s">
         <v>215</v>
       </c>
-      <c r="T8" s="133" t="s">
+      <c r="T8" s="105" t="s">
         <v>285</v>
       </c>
-      <c r="U8" s="131" t="s">
+      <c r="U8" s="103" t="s">
         <v>216</v>
       </c>
       <c r="X8" s="38" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="9" spans="1:24" s="95" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" s="67" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="88" t="s">
+      <c r="B9" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="C9" s="91" t="s">
+      <c r="C9" s="63" t="s">
         <v>226</v>
       </c>
-      <c r="D9" s="92" t="s">
+      <c r="D9" s="64" t="s">
         <v>229</v>
       </c>
-      <c r="E9" s="100" t="s">
+      <c r="E9" s="72" t="s">
         <v>237</v>
       </c>
-      <c r="F9" s="115"/>
-      <c r="G9" s="125" t="s">
+      <c r="F9" s="87"/>
+      <c r="G9" s="97" t="s">
         <v>238</v>
       </c>
-      <c r="H9" s="118">
+      <c r="H9" s="90">
         <v>6</v>
       </c>
-      <c r="I9" s="112" t="s">
+      <c r="I9" s="84" t="s">
         <v>206</v>
       </c>
-      <c r="J9" s="99" t="s">
+      <c r="J9" s="71" t="s">
         <v>239</v>
       </c>
       <c r="K9" s="35" t="s">
@@ -6904,58 +6904,58 @@
         <v>99</v>
       </c>
       <c r="N9" s="37"/>
-      <c r="O9" s="98" t="s">
+      <c r="O9" s="70" t="s">
         <v>317</v>
       </c>
-      <c r="P9" s="112" t="s">
+      <c r="P9" s="84" t="s">
         <v>206</v>
       </c>
-      <c r="Q9" s="131">
+      <c r="Q9" s="103">
         <v>6</v>
       </c>
-      <c r="R9" s="132" t="s">
+      <c r="R9" s="104" t="s">
         <v>209</v>
       </c>
-      <c r="S9" s="131" t="s">
+      <c r="S9" s="103" t="s">
         <v>210</v>
       </c>
-      <c r="T9" s="133" t="s">
+      <c r="T9" s="105" t="s">
         <v>213</v>
       </c>
-      <c r="U9" s="131" t="s">
+      <c r="U9" s="103" t="s">
         <v>212</v>
       </c>
       <c r="X9" s="38" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:24" s="95" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" s="67" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="88" t="s">
+      <c r="B10" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="C10" s="91" t="s">
+      <c r="C10" s="63" t="s">
         <v>226</v>
       </c>
-      <c r="D10" s="92" t="s">
+      <c r="D10" s="64" t="s">
         <v>229</v>
       </c>
-      <c r="E10" s="100" t="s">
+      <c r="E10" s="72" t="s">
         <v>237</v>
       </c>
-      <c r="F10" s="115"/>
-      <c r="G10" s="125" t="s">
+      <c r="F10" s="87"/>
+      <c r="G10" s="97" t="s">
         <v>242</v>
       </c>
-      <c r="H10" s="118">
+      <c r="H10" s="90">
         <v>7</v>
       </c>
-      <c r="I10" s="112" t="s">
+      <c r="I10" s="84" t="s">
         <v>207</v>
       </c>
-      <c r="J10" s="99" t="s">
+      <c r="J10" s="71" t="s">
         <v>241</v>
       </c>
       <c r="K10" s="35" t="s">
@@ -6968,58 +6968,58 @@
       <c r="N10" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="O10" s="98" t="s">
+      <c r="O10" s="70" t="s">
         <v>318</v>
       </c>
-      <c r="P10" s="112" t="s">
+      <c r="P10" s="84" t="s">
         <v>206</v>
       </c>
-      <c r="Q10" s="131">
+      <c r="Q10" s="103">
         <v>6</v>
       </c>
-      <c r="R10" s="132" t="s">
+      <c r="R10" s="104" t="s">
         <v>214</v>
       </c>
-      <c r="S10" s="131" t="s">
+      <c r="S10" s="103" t="s">
         <v>215</v>
       </c>
-      <c r="T10" s="133" t="s">
+      <c r="T10" s="105" t="s">
         <v>286</v>
       </c>
-      <c r="U10" s="131" t="s">
+      <c r="U10" s="103" t="s">
         <v>216</v>
       </c>
       <c r="X10" s="38" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:24" s="95" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" s="67" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="B11" s="88" t="s">
+      <c r="B11" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="C11" s="91" t="s">
+      <c r="C11" s="63" t="s">
         <v>226</v>
       </c>
-      <c r="D11" s="92" t="s">
+      <c r="D11" s="64" t="s">
         <v>229</v>
       </c>
-      <c r="E11" s="100" t="s">
+      <c r="E11" s="72" t="s">
         <v>237</v>
       </c>
-      <c r="F11" s="115"/>
-      <c r="G11" s="124" t="s">
+      <c r="F11" s="87"/>
+      <c r="G11" s="96" t="s">
         <v>294</v>
       </c>
-      <c r="H11" s="118">
+      <c r="H11" s="90">
         <v>8</v>
       </c>
-      <c r="I11" s="112" t="s">
+      <c r="I11" s="84" t="s">
         <v>207</v>
       </c>
-      <c r="J11" s="99" t="s">
+      <c r="J11" s="71" t="s">
         <v>295</v>
       </c>
       <c r="K11" s="35" t="s">
@@ -7032,58 +7032,58 @@
       <c r="N11" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="O11" s="98" t="s">
+      <c r="O11" s="70" t="s">
         <v>243</v>
       </c>
-      <c r="P11" s="112" t="s">
+      <c r="P11" s="84" t="s">
         <v>207</v>
       </c>
-      <c r="Q11" s="131">
+      <c r="Q11" s="103">
         <v>6</v>
       </c>
-      <c r="R11" s="132" t="s">
+      <c r="R11" s="104" t="s">
         <v>214</v>
       </c>
-      <c r="S11" s="131" t="s">
+      <c r="S11" s="103" t="s">
         <v>215</v>
       </c>
-      <c r="T11" s="133" t="s">
+      <c r="T11" s="105" t="s">
         <v>289</v>
       </c>
-      <c r="U11" s="131" t="s">
+      <c r="U11" s="103" t="s">
         <v>216</v>
       </c>
       <c r="X11" s="38" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="12" spans="1:24" s="95" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" s="67" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="88" t="s">
+      <c r="B12" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="C12" s="91" t="s">
+      <c r="C12" s="63" t="s">
         <v>226</v>
       </c>
-      <c r="D12" s="92" t="s">
+      <c r="D12" s="64" t="s">
         <v>229</v>
       </c>
-      <c r="E12" s="100" t="s">
+      <c r="E12" s="72" t="s">
         <v>237</v>
       </c>
-      <c r="F12" s="115"/>
-      <c r="G12" s="125" t="s">
+      <c r="F12" s="87"/>
+      <c r="G12" s="97" t="s">
         <v>244</v>
       </c>
-      <c r="H12" s="118">
+      <c r="H12" s="90">
         <v>9</v>
       </c>
-      <c r="I12" s="119" t="s">
+      <c r="I12" s="91" t="s">
         <v>207</v>
       </c>
-      <c r="J12" s="97" t="s">
+      <c r="J12" s="69" t="s">
         <v>245</v>
       </c>
       <c r="K12" s="35" t="s">
@@ -7096,58 +7096,58 @@
       <c r="N12" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="O12" s="98" t="s">
+      <c r="O12" s="70" t="s">
         <v>319</v>
       </c>
-      <c r="P12" s="112" t="s">
+      <c r="P12" s="84" t="s">
         <v>206</v>
       </c>
-      <c r="Q12" s="131">
+      <c r="Q12" s="103">
         <v>6</v>
       </c>
-      <c r="R12" s="132" t="s">
+      <c r="R12" s="104" t="s">
         <v>214</v>
       </c>
-      <c r="S12" s="131" t="s">
+      <c r="S12" s="103" t="s">
         <v>215</v>
       </c>
-      <c r="T12" s="133" t="s">
+      <c r="T12" s="105" t="s">
         <v>287</v>
       </c>
-      <c r="U12" s="131" t="s">
+      <c r="U12" s="103" t="s">
         <v>216</v>
       </c>
       <c r="X12" s="38" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="13" spans="1:24" s="95" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" s="67" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="88" t="s">
+      <c r="B13" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="C13" s="91" t="s">
+      <c r="C13" s="63" t="s">
         <v>226</v>
       </c>
-      <c r="D13" s="92" t="s">
+      <c r="D13" s="64" t="s">
         <v>229</v>
       </c>
-      <c r="E13" s="100" t="s">
+      <c r="E13" s="72" t="s">
         <v>237</v>
       </c>
-      <c r="F13" s="115"/>
-      <c r="G13" s="125" t="s">
+      <c r="F13" s="87"/>
+      <c r="G13" s="97" t="s">
         <v>246</v>
       </c>
-      <c r="H13" s="118">
+      <c r="H13" s="90">
         <v>10</v>
       </c>
-      <c r="I13" s="112" t="s">
+      <c r="I13" s="84" t="s">
         <v>207</v>
       </c>
-      <c r="J13" s="99" t="s">
+      <c r="J13" s="71" t="s">
         <v>320</v>
       </c>
       <c r="K13" s="35" t="s">
@@ -7160,58 +7160,58 @@
       <c r="N13" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="O13" s="98" t="s">
+      <c r="O13" s="70" t="s">
         <v>321</v>
       </c>
-      <c r="P13" s="112" t="s">
+      <c r="P13" s="84" t="s">
         <v>206</v>
       </c>
-      <c r="Q13" s="131">
+      <c r="Q13" s="103">
         <v>6</v>
       </c>
-      <c r="R13" s="132" t="s">
+      <c r="R13" s="104" t="s">
         <v>214</v>
       </c>
-      <c r="S13" s="131" t="s">
+      <c r="S13" s="103" t="s">
         <v>215</v>
       </c>
-      <c r="T13" s="133" t="s">
+      <c r="T13" s="105" t="s">
         <v>217</v>
       </c>
-      <c r="U13" s="131" t="s">
+      <c r="U13" s="103" t="s">
         <v>216</v>
       </c>
       <c r="X13" s="38" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="14" spans="1:24" s="95" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" s="67" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="88" t="s">
+      <c r="B14" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="C14" s="91" t="s">
+      <c r="C14" s="63" t="s">
         <v>226</v>
       </c>
-      <c r="D14" s="92" t="s">
+      <c r="D14" s="64" t="s">
         <v>229</v>
       </c>
-      <c r="E14" s="100" t="s">
+      <c r="E14" s="72" t="s">
         <v>247</v>
       </c>
-      <c r="F14" s="115"/>
-      <c r="G14" s="125" t="s">
+      <c r="F14" s="87"/>
+      <c r="G14" s="97" t="s">
         <v>304</v>
       </c>
-      <c r="H14" s="118">
+      <c r="H14" s="90">
         <v>11</v>
       </c>
-      <c r="I14" s="112" t="s">
+      <c r="I14" s="84" t="s">
         <v>207</v>
       </c>
-      <c r="J14" s="97" t="s">
+      <c r="J14" s="69" t="s">
         <v>248</v>
       </c>
       <c r="K14" s="35" t="s">
@@ -7224,58 +7224,58 @@
       <c r="N14" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="O14" s="98" t="s">
+      <c r="O14" s="70" t="s">
         <v>322</v>
       </c>
-      <c r="P14" s="112" t="s">
+      <c r="P14" s="84" t="s">
         <v>206</v>
       </c>
-      <c r="Q14" s="131">
+      <c r="Q14" s="103">
         <v>6</v>
       </c>
-      <c r="R14" s="132" t="s">
+      <c r="R14" s="104" t="s">
         <v>214</v>
       </c>
-      <c r="S14" s="131" t="s">
+      <c r="S14" s="103" t="s">
         <v>215</v>
       </c>
-      <c r="T14" s="133" t="s">
+      <c r="T14" s="105" t="s">
         <v>220</v>
       </c>
-      <c r="U14" s="131" t="s">
+      <c r="U14" s="103" t="s">
         <v>216</v>
       </c>
       <c r="X14" s="38" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="15" spans="1:24" s="95" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" s="67" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="88" t="s">
+      <c r="B15" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="C15" s="91" t="s">
+      <c r="C15" s="63" t="s">
         <v>226</v>
       </c>
-      <c r="D15" s="92" t="s">
+      <c r="D15" s="64" t="s">
         <v>229</v>
       </c>
-      <c r="E15" s="100" t="s">
+      <c r="E15" s="72" t="s">
         <v>247</v>
       </c>
-      <c r="F15" s="115"/>
-      <c r="G15" s="125" t="s">
+      <c r="F15" s="87"/>
+      <c r="G15" s="97" t="s">
         <v>305</v>
       </c>
-      <c r="H15" s="118">
+      <c r="H15" s="90">
         <v>12</v>
       </c>
-      <c r="I15" s="112" t="s">
+      <c r="I15" s="84" t="s">
         <v>207</v>
       </c>
-      <c r="J15" s="97" t="s">
+      <c r="J15" s="69" t="s">
         <v>265</v>
       </c>
       <c r="K15" s="35" t="s">
@@ -7288,54 +7288,54 @@
       <c r="N15" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="O15" s="98"/>
-      <c r="P15" s="112" t="s">
+      <c r="O15" s="70"/>
+      <c r="P15" s="84" t="s">
         <v>207</v>
       </c>
-      <c r="Q15" s="134">
+      <c r="Q15" s="106">
         <v>6</v>
       </c>
-      <c r="R15" s="135" t="s">
+      <c r="R15" s="107" t="s">
         <v>214</v>
       </c>
-      <c r="S15" s="134" t="s">
+      <c r="S15" s="106" t="s">
         <v>341</v>
       </c>
-      <c r="T15" s="136" t="s">
+      <c r="T15" s="108" t="s">
         <v>342</v>
       </c>
-      <c r="U15" s="134" t="s">
+      <c r="U15" s="106" t="s">
         <v>343</v>
       </c>
       <c r="X15" s="38" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="16" spans="1:24" s="95" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" s="67" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="88" t="s">
+      <c r="B16" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="C16" s="91" t="s">
+      <c r="C16" s="63" t="s">
         <v>226</v>
       </c>
-      <c r="D16" s="101" t="s">
+      <c r="D16" s="73" t="s">
         <v>323</v>
       </c>
-      <c r="E16" s="102"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="125" t="s">
+      <c r="E16" s="74"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="97" t="s">
         <v>250</v>
       </c>
-      <c r="H16" s="120">
-        <v>12</v>
-      </c>
-      <c r="I16" s="112" t="s">
+      <c r="H16" s="92">
+        <v>13</v>
+      </c>
+      <c r="I16" s="84" t="s">
         <v>206</v>
       </c>
-      <c r="J16" s="103" t="s">
+      <c r="J16" s="75" t="s">
         <v>251</v>
       </c>
       <c r="K16" s="35" t="s">
@@ -7348,56 +7348,56 @@
         <v>89</v>
       </c>
       <c r="N16" s="37"/>
-      <c r="O16" s="98" t="s">
+      <c r="O16" s="70" t="s">
         <v>324</v>
       </c>
-      <c r="P16" s="112" t="s">
+      <c r="P16" s="84" t="s">
         <v>206</v>
       </c>
-      <c r="Q16" s="131">
+      <c r="Q16" s="103">
         <v>6</v>
       </c>
-      <c r="R16" s="132" t="s">
+      <c r="R16" s="104" t="s">
         <v>209</v>
       </c>
-      <c r="S16" s="131" t="s">
+      <c r="S16" s="103" t="s">
         <v>210</v>
       </c>
-      <c r="T16" s="133" t="s">
+      <c r="T16" s="105" t="s">
         <v>211</v>
       </c>
-      <c r="U16" s="131" t="s">
+      <c r="U16" s="103" t="s">
         <v>212</v>
       </c>
       <c r="X16" s="38" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="1:24" s="95" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" s="67" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="B17" s="88" t="s">
+      <c r="B17" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="C17" s="91" t="s">
+      <c r="C17" s="63" t="s">
         <v>226</v>
       </c>
-      <c r="D17" s="101" t="s">
+      <c r="D17" s="73" t="s">
         <v>323</v>
       </c>
-      <c r="E17" s="102"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="125" t="s">
+      <c r="E17" s="74"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="97" t="s">
         <v>249</v>
       </c>
-      <c r="H17" s="119">
+      <c r="H17" s="91">
         <v>14</v>
       </c>
-      <c r="I17" s="112" t="s">
+      <c r="I17" s="84" t="s">
         <v>207</v>
       </c>
-      <c r="J17" s="97" t="s">
+      <c r="J17" s="69" t="s">
         <v>254</v>
       </c>
       <c r="K17" s="35" t="s">
@@ -7410,56 +7410,56 @@
       <c r="N17" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="O17" s="98" t="s">
+      <c r="O17" s="70" t="s">
         <v>325</v>
       </c>
-      <c r="P17" s="112" t="s">
+      <c r="P17" s="84" t="s">
         <v>206</v>
       </c>
-      <c r="Q17" s="131">
+      <c r="Q17" s="103">
         <v>6</v>
       </c>
-      <c r="R17" s="132" t="s">
+      <c r="R17" s="104" t="s">
         <v>214</v>
       </c>
-      <c r="S17" s="131" t="s">
+      <c r="S17" s="103" t="s">
         <v>215</v>
       </c>
-      <c r="T17" s="133" t="s">
+      <c r="T17" s="105" t="s">
         <v>218</v>
       </c>
-      <c r="U17" s="131" t="s">
+      <c r="U17" s="103" t="s">
         <v>216</v>
       </c>
       <c r="X17" s="38" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="18" spans="1:24" s="95" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" s="67" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="88" t="s">
+      <c r="B18" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="C18" s="91" t="s">
+      <c r="C18" s="63" t="s">
         <v>226</v>
       </c>
-      <c r="D18" s="101" t="s">
+      <c r="D18" s="73" t="s">
         <v>323</v>
       </c>
-      <c r="E18" s="102"/>
-      <c r="F18" s="115"/>
-      <c r="G18" s="125" t="s">
+      <c r="E18" s="74"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="97" t="s">
         <v>252</v>
       </c>
-      <c r="H18" s="119">
+      <c r="H18" s="91">
         <v>15</v>
       </c>
-      <c r="I18" s="112" t="s">
+      <c r="I18" s="84" t="s">
         <v>207</v>
       </c>
-      <c r="J18" s="97" t="s">
+      <c r="J18" s="69" t="s">
         <v>253</v>
       </c>
       <c r="K18" s="35" t="s">
@@ -7472,54 +7472,54 @@
       <c r="N18" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="O18" s="98"/>
-      <c r="P18" s="112" t="s">
+      <c r="O18" s="70"/>
+      <c r="P18" s="84" t="s">
         <v>206</v>
       </c>
-      <c r="Q18" s="131">
+      <c r="Q18" s="103">
         <v>6</v>
       </c>
-      <c r="R18" s="132" t="s">
+      <c r="R18" s="104" t="s">
         <v>214</v>
       </c>
-      <c r="S18" s="131" t="s">
+      <c r="S18" s="103" t="s">
         <v>215</v>
       </c>
-      <c r="T18" s="133" t="s">
+      <c r="T18" s="105" t="s">
         <v>283</v>
       </c>
-      <c r="U18" s="131" t="s">
+      <c r="U18" s="103" t="s">
         <v>216</v>
       </c>
       <c r="X18" s="38" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="19" spans="1:24" s="95" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" s="67" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="88" t="s">
+      <c r="B19" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="C19" s="91" t="s">
+      <c r="C19" s="63" t="s">
         <v>226</v>
       </c>
-      <c r="D19" s="101" t="s">
+      <c r="D19" s="73" t="s">
         <v>323</v>
       </c>
-      <c r="E19" s="102"/>
-      <c r="F19" s="115"/>
-      <c r="G19" s="126" t="s">
+      <c r="E19" s="74"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="98" t="s">
         <v>255</v>
       </c>
-      <c r="H19" s="119">
+      <c r="H19" s="91">
         <v>16</v>
       </c>
-      <c r="I19" s="112" t="s">
+      <c r="I19" s="84" t="s">
         <v>207</v>
       </c>
-      <c r="J19" s="99" t="s">
+      <c r="J19" s="71" t="s">
         <v>256</v>
       </c>
       <c r="K19" s="35" t="s">
@@ -7532,56 +7532,56 @@
       <c r="N19" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="O19" s="98" t="s">
+      <c r="O19" s="70" t="s">
         <v>326</v>
       </c>
-      <c r="P19" s="113" t="s">
+      <c r="P19" s="85" t="s">
         <v>207</v>
       </c>
-      <c r="Q19" s="131">
+      <c r="Q19" s="103">
         <v>6</v>
       </c>
-      <c r="R19" s="132" t="s">
+      <c r="R19" s="104" t="s">
         <v>214</v>
       </c>
-      <c r="S19" s="131" t="s">
+      <c r="S19" s="103" t="s">
         <v>215</v>
       </c>
-      <c r="T19" s="133" t="s">
+      <c r="T19" s="105" t="s">
         <v>290</v>
       </c>
-      <c r="U19" s="131" t="s">
+      <c r="U19" s="103" t="s">
         <v>216</v>
       </c>
       <c r="X19" s="38" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="20" spans="1:24" s="95" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" s="67" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="88" t="s">
+      <c r="B20" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="C20" s="91" t="s">
+      <c r="C20" s="63" t="s">
         <v>226</v>
       </c>
-      <c r="D20" s="101" t="s">
+      <c r="D20" s="73" t="s">
         <v>323</v>
       </c>
-      <c r="E20" s="102"/>
-      <c r="F20" s="115"/>
-      <c r="G20" s="125" t="s">
+      <c r="E20" s="74"/>
+      <c r="F20" s="87"/>
+      <c r="G20" s="97" t="s">
         <v>257</v>
       </c>
-      <c r="H20" s="119">
+      <c r="H20" s="91">
         <v>17</v>
       </c>
-      <c r="I20" s="112" t="s">
+      <c r="I20" s="84" t="s">
         <v>207</v>
       </c>
-      <c r="J20" s="97" t="s">
+      <c r="J20" s="69" t="s">
         <v>258</v>
       </c>
       <c r="K20" s="35" t="s">
@@ -7594,58 +7594,58 @@
       <c r="N20" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="O20" s="98" t="s">
+      <c r="O20" s="70" t="s">
         <v>327</v>
       </c>
-      <c r="P20" s="112" t="s">
+      <c r="P20" s="84" t="s">
         <v>206</v>
       </c>
-      <c r="Q20" s="131">
+      <c r="Q20" s="103">
         <v>6</v>
       </c>
-      <c r="R20" s="132" t="s">
+      <c r="R20" s="104" t="s">
         <v>214</v>
       </c>
-      <c r="S20" s="131" t="s">
+      <c r="S20" s="103" t="s">
         <v>215</v>
       </c>
-      <c r="T20" s="133" t="s">
+      <c r="T20" s="105" t="s">
         <v>219</v>
       </c>
-      <c r="U20" s="131" t="s">
+      <c r="U20" s="103" t="s">
         <v>216</v>
       </c>
       <c r="X20" s="38" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="21" spans="1:24" s="95" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" s="67" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="B21" s="88" t="s">
+      <c r="B21" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="C21" s="91" t="s">
+      <c r="C21" s="63" t="s">
         <v>226</v>
       </c>
-      <c r="D21" s="101" t="s">
+      <c r="D21" s="73" t="s">
         <v>323</v>
       </c>
-      <c r="E21" s="100" t="s">
+      <c r="E21" s="72" t="s">
         <v>259</v>
       </c>
-      <c r="F21" s="115"/>
-      <c r="G21" s="125" t="s">
+      <c r="F21" s="87"/>
+      <c r="G21" s="97" t="s">
         <v>260</v>
       </c>
-      <c r="H21" s="119">
+      <c r="H21" s="91">
         <v>18</v>
       </c>
-      <c r="I21" s="112" t="s">
+      <c r="I21" s="84" t="s">
         <v>206</v>
       </c>
-      <c r="J21" s="99" t="s">
+      <c r="J21" s="71" t="s">
         <v>328</v>
       </c>
       <c r="K21" s="35" t="s">
@@ -7658,58 +7658,58 @@
         <v>99</v>
       </c>
       <c r="N21" s="37"/>
-      <c r="O21" s="98" t="s">
+      <c r="O21" s="70" t="s">
         <v>329</v>
       </c>
-      <c r="P21" s="112" t="s">
+      <c r="P21" s="84" t="s">
         <v>206</v>
       </c>
-      <c r="Q21" s="131">
+      <c r="Q21" s="103">
         <v>6</v>
       </c>
-      <c r="R21" s="132" t="s">
+      <c r="R21" s="104" t="s">
         <v>209</v>
       </c>
-      <c r="S21" s="131" t="s">
+      <c r="S21" s="103" t="s">
         <v>210</v>
       </c>
-      <c r="T21" s="133" t="s">
+      <c r="T21" s="105" t="s">
         <v>281</v>
       </c>
-      <c r="U21" s="131" t="s">
+      <c r="U21" s="103" t="s">
         <v>212</v>
       </c>
       <c r="X21" s="38" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="22" spans="1:24" s="95" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" s="67" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="B22" s="88" t="s">
+      <c r="B22" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="C22" s="91" t="s">
+      <c r="C22" s="63" t="s">
         <v>226</v>
       </c>
-      <c r="D22" s="101" t="s">
+      <c r="D22" s="73" t="s">
         <v>323</v>
       </c>
-      <c r="E22" s="100" t="s">
+      <c r="E22" s="72" t="s">
         <v>259</v>
       </c>
-      <c r="F22" s="115"/>
-      <c r="G22" s="125" t="s">
+      <c r="F22" s="87"/>
+      <c r="G22" s="97" t="s">
         <v>261</v>
       </c>
-      <c r="H22" s="119">
+      <c r="H22" s="91">
         <v>19</v>
       </c>
-      <c r="I22" s="112" t="s">
+      <c r="I22" s="84" t="s">
         <v>207</v>
       </c>
-      <c r="J22" s="97" t="s">
+      <c r="J22" s="69" t="s">
         <v>262</v>
       </c>
       <c r="K22" s="35" t="s">
@@ -7722,58 +7722,58 @@
       <c r="N22" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="O22" s="98" t="s">
+      <c r="O22" s="70" t="s">
         <v>330</v>
       </c>
-      <c r="P22" s="112" t="s">
+      <c r="P22" s="84" t="s">
         <v>206</v>
       </c>
-      <c r="Q22" s="131">
+      <c r="Q22" s="103">
         <v>6</v>
       </c>
-      <c r="R22" s="132" t="s">
+      <c r="R22" s="104" t="s">
         <v>214</v>
       </c>
-      <c r="S22" s="131" t="s">
+      <c r="S22" s="103" t="s">
         <v>215</v>
       </c>
-      <c r="T22" s="133" t="s">
+      <c r="T22" s="105" t="s">
         <v>344</v>
       </c>
-      <c r="U22" s="131" t="s">
+      <c r="U22" s="103" t="s">
         <v>216</v>
       </c>
       <c r="X22" s="38" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="23" spans="1:24" s="95" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" s="67" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="88" t="s">
+      <c r="B23" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="C23" s="91" t="s">
+      <c r="C23" s="63" t="s">
         <v>226</v>
       </c>
-      <c r="D23" s="101" t="s">
+      <c r="D23" s="73" t="s">
         <v>323</v>
       </c>
-      <c r="E23" s="100" t="s">
+      <c r="E23" s="72" t="s">
         <v>259</v>
       </c>
-      <c r="F23" s="115"/>
-      <c r="G23" s="126" t="s">
+      <c r="F23" s="87"/>
+      <c r="G23" s="98" t="s">
         <v>263</v>
       </c>
-      <c r="H23" s="119">
+      <c r="H23" s="91">
         <v>20</v>
       </c>
-      <c r="I23" s="112" t="s">
+      <c r="I23" s="84" t="s">
         <v>207</v>
       </c>
-      <c r="J23" s="97" t="s">
+      <c r="J23" s="69" t="s">
         <v>264</v>
       </c>
       <c r="K23" s="35" t="s">
@@ -7786,58 +7786,58 @@
       <c r="N23" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="O23" s="98" t="s">
+      <c r="O23" s="70" t="s">
         <v>331</v>
       </c>
-      <c r="P23" s="112" t="s">
+      <c r="P23" s="84" t="s">
         <v>206</v>
       </c>
-      <c r="Q23" s="131">
+      <c r="Q23" s="103">
         <v>6</v>
       </c>
-      <c r="R23" s="132" t="s">
+      <c r="R23" s="104" t="s">
         <v>214</v>
       </c>
-      <c r="S23" s="131" t="s">
+      <c r="S23" s="103" t="s">
         <v>215</v>
       </c>
-      <c r="T23" s="133" t="s">
+      <c r="T23" s="105" t="s">
         <v>291</v>
       </c>
-      <c r="U23" s="131" t="s">
+      <c r="U23" s="103" t="s">
         <v>216</v>
       </c>
       <c r="X23" s="38" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="24" spans="1:24" s="95" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" s="67" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="88" t="s">
+      <c r="B24" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="C24" s="91" t="s">
+      <c r="C24" s="63" t="s">
         <v>226</v>
       </c>
-      <c r="D24" s="101" t="s">
+      <c r="D24" s="73" t="s">
         <v>323</v>
       </c>
-      <c r="E24" s="102" t="s">
+      <c r="E24" s="74" t="s">
         <v>247</v>
       </c>
-      <c r="F24" s="115"/>
-      <c r="G24" s="125" t="s">
+      <c r="F24" s="87"/>
+      <c r="G24" s="97" t="s">
         <v>306</v>
       </c>
-      <c r="H24" s="119">
+      <c r="H24" s="91">
         <v>21</v>
       </c>
-      <c r="I24" s="112" t="s">
+      <c r="I24" s="84" t="s">
         <v>207</v>
       </c>
-      <c r="J24" s="99" t="s">
+      <c r="J24" s="71" t="s">
         <v>266</v>
       </c>
       <c r="K24" s="35" t="s">
@@ -7850,56 +7850,56 @@
       <c r="N24" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="O24" s="98" t="s">
+      <c r="O24" s="70" t="s">
         <v>332</v>
       </c>
-      <c r="P24" s="112" t="s">
+      <c r="P24" s="84" t="s">
         <v>206</v>
       </c>
-      <c r="Q24" s="131">
+      <c r="Q24" s="103">
         <v>6</v>
       </c>
-      <c r="R24" s="132" t="s">
+      <c r="R24" s="104" t="s">
         <v>214</v>
       </c>
-      <c r="S24" s="131" t="s">
+      <c r="S24" s="103" t="s">
         <v>215</v>
       </c>
-      <c r="T24" s="133" t="s">
+      <c r="T24" s="105" t="s">
         <v>221</v>
       </c>
-      <c r="U24" s="131" t="s">
+      <c r="U24" s="103" t="s">
         <v>216</v>
       </c>
       <c r="X24" s="38" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="25" spans="1:24" s="95" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" s="67" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="B25" s="88" t="s">
+      <c r="B25" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="C25" s="91" t="s">
+      <c r="C25" s="63" t="s">
         <v>226</v>
       </c>
-      <c r="D25" s="101" t="s">
+      <c r="D25" s="73" t="s">
         <v>307</v>
       </c>
-      <c r="E25" s="102"/>
-      <c r="F25" s="115"/>
-      <c r="G25" s="125" t="s">
+      <c r="E25" s="74"/>
+      <c r="F25" s="87"/>
+      <c r="G25" s="97" t="s">
         <v>267</v>
       </c>
-      <c r="H25" s="119">
+      <c r="H25" s="91">
         <v>22</v>
       </c>
-      <c r="I25" s="112" t="s">
+      <c r="I25" s="84" t="s">
         <v>206</v>
       </c>
-      <c r="J25" s="97" t="s">
+      <c r="J25" s="69" t="s">
         <v>268</v>
       </c>
       <c r="K25" s="35" t="s">
@@ -7912,56 +7912,56 @@
         <v>91</v>
       </c>
       <c r="N25" s="37"/>
-      <c r="O25" s="98" t="s">
+      <c r="O25" s="70" t="s">
         <v>333</v>
       </c>
-      <c r="P25" s="112" t="s">
+      <c r="P25" s="84" t="s">
         <v>206</v>
       </c>
-      <c r="Q25" s="131">
+      <c r="Q25" s="103">
         <v>6</v>
       </c>
-      <c r="R25" s="132" t="s">
+      <c r="R25" s="104" t="s">
         <v>209</v>
       </c>
-      <c r="S25" s="131" t="s">
+      <c r="S25" s="103" t="s">
         <v>210</v>
       </c>
-      <c r="T25" s="133" t="s">
+      <c r="T25" s="105" t="s">
         <v>280</v>
       </c>
-      <c r="U25" s="131" t="s">
+      <c r="U25" s="103" t="s">
         <v>212</v>
       </c>
       <c r="X25" s="38" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="26" spans="1:24" s="95" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" s="67" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="88" t="s">
+      <c r="B26" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="C26" s="91" t="s">
+      <c r="C26" s="63" t="s">
         <v>226</v>
       </c>
-      <c r="D26" s="101" t="s">
+      <c r="D26" s="73" t="s">
         <v>307</v>
       </c>
-      <c r="E26" s="102"/>
-      <c r="F26" s="115"/>
-      <c r="G26" s="125" t="s">
+      <c r="E26" s="74"/>
+      <c r="F26" s="87"/>
+      <c r="G26" s="97" t="s">
         <v>335</v>
       </c>
-      <c r="H26" s="119">
+      <c r="H26" s="91">
         <v>23</v>
       </c>
-      <c r="I26" s="112" t="s">
+      <c r="I26" s="84" t="s">
         <v>207</v>
       </c>
-      <c r="J26" s="99" t="s">
+      <c r="J26" s="71" t="s">
         <v>269</v>
       </c>
       <c r="K26" s="35" t="s">
@@ -7974,58 +7974,58 @@
       <c r="N26" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="O26" s="98" t="s">
+      <c r="O26" s="70" t="s">
         <v>334</v>
       </c>
-      <c r="P26" s="112" t="s">
+      <c r="P26" s="84" t="s">
         <v>206</v>
       </c>
-      <c r="Q26" s="131">
+      <c r="Q26" s="103">
         <v>6</v>
       </c>
-      <c r="R26" s="132" t="s">
+      <c r="R26" s="104" t="s">
         <v>214</v>
       </c>
-      <c r="S26" s="131" t="s">
+      <c r="S26" s="103" t="s">
         <v>215</v>
       </c>
-      <c r="T26" s="133" t="s">
+      <c r="T26" s="105" t="s">
         <v>292</v>
       </c>
-      <c r="U26" s="131" t="s">
+      <c r="U26" s="103" t="s">
         <v>216</v>
       </c>
       <c r="X26" s="38" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="27" spans="1:24" s="95" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" s="67" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="88" t="s">
+      <c r="B27" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="C27" s="91" t="s">
+      <c r="C27" s="63" t="s">
         <v>226</v>
       </c>
-      <c r="D27" s="101" t="s">
+      <c r="D27" s="73" t="s">
         <v>307</v>
       </c>
-      <c r="E27" s="102" t="s">
+      <c r="E27" s="74" t="s">
         <v>247</v>
       </c>
-      <c r="F27" s="115"/>
-      <c r="G27" s="126" t="s">
+      <c r="F27" s="87"/>
+      <c r="G27" s="98" t="s">
         <v>336</v>
       </c>
-      <c r="H27" s="120">
+      <c r="H27" s="92">
         <v>24</v>
       </c>
-      <c r="I27" s="112" t="s">
+      <c r="I27" s="84" t="s">
         <v>207</v>
       </c>
-      <c r="J27" s="99" t="s">
+      <c r="J27" s="71" t="s">
         <v>270</v>
       </c>
       <c r="K27" s="35" t="s">
@@ -8038,56 +8038,56 @@
       <c r="N27" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="O27" s="98" t="s">
+      <c r="O27" s="70" t="s">
         <v>337</v>
       </c>
-      <c r="P27" s="112" t="s">
+      <c r="P27" s="84" t="s">
         <v>207</v>
       </c>
-      <c r="Q27" s="131">
+      <c r="Q27" s="103">
         <v>6</v>
       </c>
-      <c r="R27" s="132" t="s">
+      <c r="R27" s="104" t="s">
         <v>214</v>
       </c>
-      <c r="S27" s="131" t="s">
+      <c r="S27" s="103" t="s">
         <v>215</v>
       </c>
-      <c r="T27" s="133" t="s">
+      <c r="T27" s="105" t="s">
         <v>222</v>
       </c>
-      <c r="U27" s="131" t="s">
+      <c r="U27" s="103" t="s">
         <v>216</v>
       </c>
       <c r="X27" s="38" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="28" spans="1:24" s="95" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" s="67" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="B28" s="88" t="s">
+      <c r="B28" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="C28" s="91" t="s">
+      <c r="C28" s="63" t="s">
         <v>226</v>
       </c>
-      <c r="D28" s="101" t="s">
+      <c r="D28" s="73" t="s">
         <v>308</v>
       </c>
-      <c r="E28" s="102"/>
-      <c r="F28" s="115"/>
-      <c r="G28" s="125" t="s">
+      <c r="E28" s="74"/>
+      <c r="F28" s="87"/>
+      <c r="G28" s="97" t="s">
         <v>339</v>
       </c>
-      <c r="H28" s="120">
+      <c r="H28" s="92">
         <v>25</v>
       </c>
-      <c r="I28" s="112" t="s">
+      <c r="I28" s="84" t="s">
         <v>207</v>
       </c>
-      <c r="J28" s="97" t="s">
+      <c r="J28" s="69" t="s">
         <v>271</v>
       </c>
       <c r="K28" s="35" t="s">
@@ -8100,56 +8100,56 @@
       <c r="N28" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="O28" s="98" t="s">
+      <c r="O28" s="70" t="s">
         <v>338</v>
       </c>
-      <c r="P28" s="112" t="s">
+      <c r="P28" s="84" t="s">
         <v>206</v>
       </c>
-      <c r="Q28" s="131">
+      <c r="Q28" s="103">
         <v>6</v>
       </c>
-      <c r="R28" s="132" t="s">
+      <c r="R28" s="104" t="s">
         <v>214</v>
       </c>
-      <c r="S28" s="131" t="s">
+      <c r="S28" s="103" t="s">
         <v>215</v>
       </c>
-      <c r="T28" s="133" t="s">
+      <c r="T28" s="105" t="s">
         <v>345</v>
       </c>
-      <c r="U28" s="131" t="s">
+      <c r="U28" s="103" t="s">
         <v>216</v>
       </c>
       <c r="X28" s="38" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="29" spans="1:24" s="95" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" s="67" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="88" t="s">
+      <c r="B29" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="C29" s="91" t="s">
+      <c r="C29" s="63" t="s">
         <v>226</v>
       </c>
-      <c r="D29" s="101" t="s">
+      <c r="D29" s="73" t="s">
         <v>308</v>
       </c>
-      <c r="E29" s="102"/>
-      <c r="F29" s="115"/>
-      <c r="G29" s="126" t="s">
+      <c r="E29" s="74"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="98" t="s">
         <v>272</v>
       </c>
-      <c r="H29" s="118">
+      <c r="H29" s="90">
         <v>26</v>
       </c>
-      <c r="I29" s="112" t="s">
+      <c r="I29" s="84" t="s">
         <v>206</v>
       </c>
-      <c r="J29" s="99" t="s">
+      <c r="J29" s="71" t="s">
         <v>273</v>
       </c>
       <c r="K29" s="35" t="s">
@@ -8162,56 +8162,56 @@
         <v>99</v>
       </c>
       <c r="N29" s="37"/>
-      <c r="O29" s="98" t="s">
+      <c r="O29" s="70" t="s">
         <v>274</v>
       </c>
-      <c r="P29" s="112" t="s">
+      <c r="P29" s="84" t="s">
         <v>206</v>
       </c>
-      <c r="Q29" s="131">
+      <c r="Q29" s="103">
         <v>6</v>
       </c>
-      <c r="R29" s="132" t="s">
+      <c r="R29" s="104" t="s">
         <v>209</v>
       </c>
-      <c r="S29" s="131" t="s">
+      <c r="S29" s="103" t="s">
         <v>210</v>
       </c>
-      <c r="T29" s="133" t="s">
+      <c r="T29" s="105" t="s">
         <v>282</v>
       </c>
-      <c r="U29" s="131" t="s">
+      <c r="U29" s="103" t="s">
         <v>212</v>
       </c>
       <c r="X29" s="38" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="30" spans="1:24" s="95" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" s="67" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="B30" s="88" t="s">
+      <c r="B30" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="C30" s="91" t="s">
+      <c r="C30" s="63" t="s">
         <v>226</v>
       </c>
-      <c r="D30" s="101" t="s">
+      <c r="D30" s="73" t="s">
         <v>308</v>
       </c>
-      <c r="E30" s="102"/>
-      <c r="F30" s="115"/>
-      <c r="G30" s="125" t="s">
+      <c r="E30" s="74"/>
+      <c r="F30" s="87"/>
+      <c r="G30" s="97" t="s">
         <v>275</v>
       </c>
-      <c r="H30" s="121">
+      <c r="H30" s="93">
         <v>27</v>
       </c>
-      <c r="I30" s="112" t="s">
+      <c r="I30" s="84" t="s">
         <v>207</v>
       </c>
-      <c r="J30" s="97" t="s">
+      <c r="J30" s="69" t="s">
         <v>276</v>
       </c>
       <c r="K30" s="35" t="s">
@@ -8224,96 +8224,96 @@
       <c r="N30" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="O30" s="98" t="s">
+      <c r="O30" s="70" t="s">
         <v>303</v>
       </c>
-      <c r="P30" s="112" t="s">
+      <c r="P30" s="84" t="s">
         <v>207</v>
       </c>
-      <c r="Q30" s="134">
+      <c r="Q30" s="106">
         <v>6</v>
       </c>
-      <c r="R30" s="135" t="s">
+      <c r="R30" s="107" t="s">
         <v>214</v>
       </c>
-      <c r="S30" s="134" t="s">
+      <c r="S30" s="106" t="s">
         <v>215</v>
       </c>
-      <c r="T30" s="136" t="s">
+      <c r="T30" s="108" t="s">
         <v>346</v>
       </c>
-      <c r="U30" s="134" t="s">
+      <c r="U30" s="106" t="s">
         <v>216</v>
       </c>
       <c r="X30" s="38" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="31" spans="1:24" s="95" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" s="67" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="B31" s="88" t="s">
+      <c r="B31" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="C31" s="91" t="s">
+      <c r="C31" s="63" t="s">
         <v>226</v>
       </c>
-      <c r="D31" s="101" t="s">
+      <c r="D31" s="73" t="s">
         <v>277</v>
       </c>
-      <c r="E31" s="102"/>
-      <c r="F31" s="115"/>
-      <c r="G31" s="125" t="s">
+      <c r="E31" s="74"/>
+      <c r="F31" s="87"/>
+      <c r="G31" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="H31" s="120">
+      <c r="H31" s="92">
         <v>28</v>
       </c>
-      <c r="I31" s="119" t="s">
+      <c r="I31" s="91" t="s">
         <v>207</v>
       </c>
-      <c r="J31" s="89"/>
+      <c r="J31" s="61"/>
       <c r="K31" s="35" t="s">
         <v>207</v>
       </c>
       <c r="L31" s="36"/>
       <c r="M31" s="37"/>
       <c r="N31" s="37"/>
-      <c r="O31" s="98"/>
-      <c r="P31" s="112"/>
-      <c r="Q31" s="131"/>
-      <c r="R31" s="132"/>
-      <c r="S31" s="131"/>
-      <c r="T31" s="137"/>
-      <c r="U31" s="131"/>
+      <c r="O31" s="70"/>
+      <c r="P31" s="84"/>
+      <c r="Q31" s="103"/>
+      <c r="R31" s="104"/>
+      <c r="S31" s="103"/>
+      <c r="T31" s="109"/>
+      <c r="U31" s="103"/>
       <c r="X31" s="38"/>
     </row>
-    <row r="32" spans="1:24" s="95" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" s="67" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="88" t="s">
+      <c r="B32" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="C32" s="91" t="s">
+      <c r="C32" s="63" t="s">
         <v>226</v>
       </c>
-      <c r="D32" s="101" t="s">
+      <c r="D32" s="73" t="s">
         <v>277</v>
       </c>
-      <c r="E32" s="102"/>
-      <c r="F32" s="115"/>
-      <c r="G32" s="125" t="s">
+      <c r="E32" s="74"/>
+      <c r="F32" s="87"/>
+      <c r="G32" s="97" t="s">
         <v>208</v>
       </c>
-      <c r="H32" s="119">
+      <c r="H32" s="91">
         <v>29</v>
       </c>
-      <c r="I32" s="119" t="s">
+      <c r="I32" s="91" t="s">
         <v>207</v>
       </c>
-      <c r="J32" s="97" t="s">
+      <c r="J32" s="69" t="s">
         <v>278</v>
       </c>
       <c r="K32" s="35" t="s">
@@ -8326,168 +8326,168 @@
       <c r="N32" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="O32" s="98" t="s">
+      <c r="O32" s="70" t="s">
         <v>340</v>
       </c>
-      <c r="P32" s="112" t="s">
+      <c r="P32" s="84" t="s">
         <v>206</v>
       </c>
-      <c r="Q32" s="131">
+      <c r="Q32" s="103">
         <v>6</v>
       </c>
-      <c r="R32" s="132" t="s">
+      <c r="R32" s="104" t="s">
         <v>214</v>
       </c>
-      <c r="S32" s="131" t="s">
+      <c r="S32" s="103" t="s">
         <v>215</v>
       </c>
-      <c r="T32" s="133" t="s">
+      <c r="T32" s="105" t="s">
         <v>293</v>
       </c>
-      <c r="U32" s="131" t="s">
+      <c r="U32" s="103" t="s">
         <v>216</v>
       </c>
       <c r="X32" s="38" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="33" spans="1:26" s="95" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="46"/>
-      <c r="B33" s="104"/>
-      <c r="C33" s="105"/>
-      <c r="D33" s="106" t="s">
+    <row r="33" spans="1:26" s="67" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="40"/>
+      <c r="B33" s="76"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="78" t="s">
         <v>309</v>
       </c>
-      <c r="E33" s="107"/>
-      <c r="F33" s="116"/>
-      <c r="G33" s="127"/>
-      <c r="H33" s="122"/>
-      <c r="I33" s="122"/>
-      <c r="J33" s="108"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="54"/>
-      <c r="M33" s="55"/>
-      <c r="N33" s="55" t="s">
+      <c r="E33" s="79"/>
+      <c r="F33" s="88"/>
+      <c r="G33" s="99"/>
+      <c r="H33" s="94"/>
+      <c r="I33" s="94"/>
+      <c r="J33" s="80"/>
+      <c r="K33" s="47"/>
+      <c r="L33" s="48"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="O33" s="109"/>
-      <c r="P33" s="110"/>
-      <c r="Q33" s="131">
+      <c r="O33" s="81"/>
+      <c r="P33" s="82"/>
+      <c r="Q33" s="103">
         <v>6</v>
       </c>
-      <c r="R33" s="132" t="s">
+      <c r="R33" s="104" t="s">
         <v>214</v>
       </c>
-      <c r="S33" s="131" t="s">
+      <c r="S33" s="103" t="s">
         <v>215</v>
       </c>
-      <c r="T33" s="133" t="s">
+      <c r="T33" s="105" t="s">
         <v>288</v>
       </c>
-      <c r="U33" s="131" t="s">
+      <c r="U33" s="103" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="34" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="46"/>
-      <c r="B34" s="47"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="117"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="122"/>
-      <c r="I34" s="123"/>
-      <c r="J34" s="52"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="54"/>
-      <c r="M34" s="55"/>
-      <c r="N34" s="55"/>
-      <c r="O34" s="56"/>
-      <c r="P34" s="57"/>
-      <c r="Q34" s="63"/>
-      <c r="R34" s="64"/>
-      <c r="S34" s="63"/>
-      <c r="T34" s="65"/>
-      <c r="U34" s="63"/>
+      <c r="A34" s="40"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="89"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="94"/>
+      <c r="I34" s="95"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="49"/>
+      <c r="N34" s="49"/>
+      <c r="O34" s="50"/>
+      <c r="P34" s="51"/>
+      <c r="Q34" s="56"/>
+      <c r="R34" s="57"/>
+      <c r="S34" s="56"/>
+      <c r="T34" s="58"/>
+      <c r="U34" s="56"/>
       <c r="Z34" s="31"/>
     </row>
     <row r="35" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="46"/>
-      <c r="B35" s="47"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="117"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="122"/>
-      <c r="I35" s="123"/>
-      <c r="J35" s="52"/>
-      <c r="K35" s="53"/>
-      <c r="L35" s="54"/>
-      <c r="M35" s="55"/>
-      <c r="N35" s="55"/>
-      <c r="O35" s="56"/>
-      <c r="P35" s="57"/>
-      <c r="Q35" s="58"/>
-      <c r="R35" s="59"/>
-      <c r="S35" s="60"/>
-      <c r="T35" s="61"/>
-      <c r="U35" s="60"/>
+      <c r="A35" s="40"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="89"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="94"/>
+      <c r="I35" s="95"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="47"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="49"/>
+      <c r="O35" s="50"/>
+      <c r="P35" s="51"/>
+      <c r="Q35" s="52"/>
+      <c r="R35" s="53"/>
+      <c r="S35" s="54"/>
+      <c r="T35" s="55"/>
+      <c r="U35" s="54"/>
       <c r="Z35" s="31"/>
     </row>
     <row r="36" spans="1:26" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="46"/>
-      <c r="B36" s="47"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="117"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="122"/>
-      <c r="I36" s="123"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="54"/>
-      <c r="M36" s="55"/>
-      <c r="N36" s="55"/>
-      <c r="O36" s="56"/>
-      <c r="P36" s="57"/>
-      <c r="Q36" s="58"/>
-      <c r="R36" s="59"/>
-      <c r="S36" s="60"/>
-      <c r="T36" s="61"/>
-      <c r="U36" s="60"/>
+      <c r="A36" s="40"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="89"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="94"/>
+      <c r="I36" s="95"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="48"/>
+      <c r="M36" s="49"/>
+      <c r="N36" s="49"/>
+      <c r="O36" s="50"/>
+      <c r="P36" s="51"/>
+      <c r="Q36" s="52"/>
+      <c r="R36" s="53"/>
+      <c r="S36" s="54"/>
+      <c r="T36" s="55"/>
+      <c r="U36" s="54"/>
       <c r="Z36" s="31"/>
     </row>
     <row r="37" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="40" t="s">
+      <c r="A37" s="117" t="s">
         <v>240</v>
       </c>
-      <c r="B37" s="41"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="41"/>
-      <c r="J37" s="41"/>
-      <c r="K37" s="42"/>
+      <c r="B37" s="118"/>
+      <c r="C37" s="118"/>
+      <c r="D37" s="118"/>
+      <c r="E37" s="118"/>
+      <c r="F37" s="118"/>
+      <c r="G37" s="118"/>
+      <c r="H37" s="118"/>
+      <c r="I37" s="118"/>
+      <c r="J37" s="118"/>
+      <c r="K37" s="119"/>
       <c r="Z37" s="31"/>
     </row>
     <row r="38" spans="1:26" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="43"/>
-      <c r="B38" s="44"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="44"/>
-      <c r="K38" s="45"/>
+      <c r="A38" s="120"/>
+      <c r="B38" s="121"/>
+      <c r="C38" s="121"/>
+      <c r="D38" s="121"/>
+      <c r="E38" s="121"/>
+      <c r="F38" s="121"/>
+      <c r="G38" s="121"/>
+      <c r="H38" s="121"/>
+      <c r="I38" s="121"/>
+      <c r="J38" s="121"/>
+      <c r="K38" s="122"/>
       <c r="Z38" s="31"/>
     </row>
     <row r="39" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -9551,13 +9551,7 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="X2:X3"/>
     <mergeCell ref="A37:K38"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="B2:B3"/>
@@ -9572,7 +9566,13 @@
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
-    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="Q2:Q3"/>
   </mergeCells>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V20 P4:P5">

--- a/fuentes/contenidos/grado07/guion03/Escaleta MA_07_03_CO.xlsx
+++ b/fuentes/contenidos/grado07/guion03/Escaleta MA_07_03_CO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Matematicas\fuentes\contenidos\grado07\guion03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lzambrano\Documents\GitHub\Matematicas\fuentes\contenidos\grado07\guion03\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,12 +16,12 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" iterateCount="2" iterateDelta="10"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="349">
   <si>
     <t>Asignatura</t>
   </si>
@@ -1063,6 +1063,12 @@
   </si>
   <si>
     <t>Recurso M102AB-02</t>
+  </si>
+  <si>
+    <t>Andrea</t>
+  </si>
+  <si>
+    <t>Johanna</t>
   </si>
 </sst>
 </file>
@@ -1159,7 +1165,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1241,6 +1247,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1451,7 +1463,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1744,6 +1756,69 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1759,68 +1834,11 @@
     <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6414,8 +6432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="V30" sqref="V30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6456,65 +6474,65 @@
       <c r="R1" s="31"/>
     </row>
     <row r="2" spans="1:24" s="62" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="124" t="s">
+      <c r="B2" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="132" t="s">
+      <c r="C2" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="133" t="s">
+      <c r="D2" s="128" t="s">
         <v>296</v>
       </c>
-      <c r="E2" s="124" t="s">
+      <c r="E2" s="119" t="s">
         <v>297</v>
       </c>
-      <c r="F2" s="136" t="s">
+      <c r="F2" s="131" t="s">
         <v>298</v>
       </c>
-      <c r="G2" s="131" t="s">
+      <c r="G2" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="136" t="s">
+      <c r="H2" s="131" t="s">
         <v>299</v>
       </c>
-      <c r="I2" s="136" t="s">
+      <c r="I2" s="131" t="s">
         <v>300</v>
       </c>
-      <c r="J2" s="128" t="s">
+      <c r="J2" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="126" t="s">
+      <c r="K2" s="121" t="s">
         <v>301</v>
       </c>
       <c r="L2" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="130" t="s">
+      <c r="M2" s="125" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="130"/>
-      <c r="O2" s="123" t="s">
+      <c r="N2" s="125"/>
+      <c r="O2" s="118" t="s">
         <v>199</v>
       </c>
-      <c r="P2" s="112" t="s">
+      <c r="P2" s="133" t="s">
         <v>302</v>
       </c>
-      <c r="Q2" s="114" t="s">
+      <c r="Q2" s="135" t="s">
         <v>121</v>
       </c>
-      <c r="R2" s="116" t="s">
+      <c r="R2" s="137" t="s">
         <v>122</v>
       </c>
-      <c r="S2" s="114" t="s">
+      <c r="S2" s="135" t="s">
         <v>123</v>
       </c>
-      <c r="T2" s="115" t="s">
+      <c r="T2" s="136" t="s">
         <v>124</v>
       </c>
-      <c r="U2" s="114" t="s">
+      <c r="U2" s="135" t="s">
         <v>125</v>
       </c>
       <c r="X2" s="110" t="s">
@@ -6522,17 +6540,17 @@
       </c>
     </row>
     <row r="3" spans="1:24" s="62" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="125"/>
-      <c r="B3" s="124"/>
-      <c r="C3" s="132"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="129"/>
-      <c r="K3" s="127"/>
+      <c r="A3" s="120"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="122"/>
       <c r="L3" s="111"/>
       <c r="M3" s="59" t="s">
         <v>126</v>
@@ -6540,13 +6558,13 @@
       <c r="N3" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="O3" s="123"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="116"/>
-      <c r="S3" s="114"/>
-      <c r="T3" s="115"/>
-      <c r="U3" s="114"/>
+      <c r="O3" s="118"/>
+      <c r="P3" s="134"/>
+      <c r="Q3" s="135"/>
+      <c r="R3" s="137"/>
+      <c r="S3" s="135"/>
+      <c r="T3" s="136"/>
+      <c r="U3" s="135"/>
       <c r="X3" s="111"/>
     </row>
     <row r="4" spans="1:24" s="67" customFormat="1" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -6607,6 +6625,9 @@
       <c r="U4" s="100" t="s">
         <v>212</v>
       </c>
+      <c r="V4" s="138" t="s">
+        <v>347</v>
+      </c>
       <c r="X4" s="34" t="s">
         <v>202</v>
       </c>
@@ -6669,6 +6690,9 @@
       <c r="U5" s="103" t="s">
         <v>216</v>
       </c>
+      <c r="V5" s="138" t="s">
+        <v>347</v>
+      </c>
       <c r="X5" s="34" t="s">
         <v>202</v>
       </c>
@@ -6733,6 +6757,9 @@
       <c r="U6" s="103" t="s">
         <v>212</v>
       </c>
+      <c r="V6" s="139" t="s">
+        <v>348</v>
+      </c>
       <c r="X6" s="34" t="s">
         <v>201</v>
       </c>
@@ -6797,6 +6824,9 @@
       <c r="U7" s="103" t="s">
         <v>216</v>
       </c>
+      <c r="V7" s="139" t="s">
+        <v>348</v>
+      </c>
       <c r="X7" s="38" t="s">
         <v>204</v>
       </c>
@@ -6861,6 +6891,9 @@
       <c r="U8" s="103" t="s">
         <v>216</v>
       </c>
+      <c r="V8" s="139" t="s">
+        <v>348</v>
+      </c>
       <c r="X8" s="38" t="s">
         <v>203</v>
       </c>
@@ -6925,6 +6958,9 @@
       <c r="U9" s="103" t="s">
         <v>212</v>
       </c>
+      <c r="V9" s="139" t="s">
+        <v>348</v>
+      </c>
       <c r="X9" s="38" t="s">
         <v>201</v>
       </c>
@@ -6989,6 +7025,9 @@
       <c r="U10" s="103" t="s">
         <v>216</v>
       </c>
+      <c r="V10" s="139" t="s">
+        <v>348</v>
+      </c>
       <c r="X10" s="38" t="s">
         <v>201</v>
       </c>
@@ -7053,6 +7092,9 @@
       <c r="U11" s="103" t="s">
         <v>216</v>
       </c>
+      <c r="V11" s="139" t="s">
+        <v>348</v>
+      </c>
       <c r="X11" s="38" t="s">
         <v>204</v>
       </c>
@@ -7117,6 +7159,9 @@
       <c r="U12" s="103" t="s">
         <v>216</v>
       </c>
+      <c r="V12" s="139" t="s">
+        <v>348</v>
+      </c>
       <c r="X12" s="38" t="s">
         <v>201</v>
       </c>
@@ -7181,6 +7226,9 @@
       <c r="U13" s="103" t="s">
         <v>216</v>
       </c>
+      <c r="V13" s="138" t="s">
+        <v>347</v>
+      </c>
       <c r="X13" s="38" t="s">
         <v>202</v>
       </c>
@@ -7245,6 +7293,9 @@
       <c r="U14" s="103" t="s">
         <v>216</v>
       </c>
+      <c r="V14" s="138" t="s">
+        <v>347</v>
+      </c>
       <c r="X14" s="38" t="s">
         <v>203</v>
       </c>
@@ -7306,6 +7357,9 @@
       </c>
       <c r="U15" s="106" t="s">
         <v>343</v>
+      </c>
+      <c r="V15" s="138" t="s">
+        <v>347</v>
       </c>
       <c r="X15" s="38" t="s">
         <v>204</v>
@@ -7369,6 +7423,9 @@
       <c r="U16" s="103" t="s">
         <v>212</v>
       </c>
+      <c r="V16" s="138" t="s">
+        <v>347</v>
+      </c>
       <c r="X16" s="38" t="s">
         <v>201</v>
       </c>
@@ -7431,6 +7488,9 @@
       <c r="U17" s="103" t="s">
         <v>216</v>
       </c>
+      <c r="V17" s="138" t="s">
+        <v>347</v>
+      </c>
       <c r="X17" s="38" t="s">
         <v>205</v>
       </c>
@@ -7491,6 +7551,9 @@
       <c r="U18" s="103" t="s">
         <v>216</v>
       </c>
+      <c r="V18" s="138" t="s">
+        <v>347</v>
+      </c>
       <c r="X18" s="38" t="s">
         <v>204</v>
       </c>
@@ -7553,6 +7616,9 @@
       <c r="U19" s="103" t="s">
         <v>216</v>
       </c>
+      <c r="V19" s="138" t="s">
+        <v>347</v>
+      </c>
       <c r="X19" s="38" t="s">
         <v>202</v>
       </c>
@@ -7615,6 +7681,9 @@
       <c r="U20" s="103" t="s">
         <v>216</v>
       </c>
+      <c r="V20" s="138" t="s">
+        <v>347</v>
+      </c>
       <c r="X20" s="38" t="s">
         <v>203</v>
       </c>
@@ -7679,6 +7748,9 @@
       <c r="U21" s="103" t="s">
         <v>212</v>
       </c>
+      <c r="V21" s="139" t="s">
+        <v>348</v>
+      </c>
       <c r="X21" s="38" t="s">
         <v>201</v>
       </c>
@@ -7743,6 +7815,9 @@
       <c r="U22" s="103" t="s">
         <v>216</v>
       </c>
+      <c r="V22" s="138" t="s">
+        <v>347</v>
+      </c>
       <c r="X22" s="38" t="s">
         <v>202</v>
       </c>
@@ -7807,6 +7882,9 @@
       <c r="U23" s="103" t="s">
         <v>216</v>
       </c>
+      <c r="V23" s="138" t="s">
+        <v>347</v>
+      </c>
       <c r="X23" s="38" t="s">
         <v>204</v>
       </c>
@@ -7870,6 +7948,9 @@
       </c>
       <c r="U24" s="103" t="s">
         <v>216</v>
+      </c>
+      <c r="V24" s="138" t="s">
+        <v>347</v>
       </c>
       <c r="X24" s="38" t="s">
         <v>203</v>
@@ -7933,6 +8014,9 @@
       <c r="U25" s="103" t="s">
         <v>212</v>
       </c>
+      <c r="V25" s="139" t="s">
+        <v>348</v>
+      </c>
       <c r="X25" s="38" t="s">
         <v>205</v>
       </c>
@@ -7995,6 +8079,9 @@
       <c r="U26" s="103" t="s">
         <v>216</v>
       </c>
+      <c r="V26" s="139" t="s">
+        <v>348</v>
+      </c>
       <c r="X26" s="38" t="s">
         <v>204</v>
       </c>
@@ -8058,6 +8145,9 @@
       </c>
       <c r="U27" s="103" t="s">
         <v>216</v>
+      </c>
+      <c r="V27" s="139" t="s">
+        <v>348</v>
       </c>
       <c r="X27" s="38" t="s">
         <v>203</v>
@@ -8121,6 +8211,9 @@
       <c r="U28" s="103" t="s">
         <v>216</v>
       </c>
+      <c r="V28" s="139" t="s">
+        <v>348</v>
+      </c>
       <c r="X28" s="38" t="s">
         <v>205</v>
       </c>
@@ -8183,6 +8276,9 @@
       <c r="U29" s="103" t="s">
         <v>212</v>
       </c>
+      <c r="V29" s="138" t="s">
+        <v>347</v>
+      </c>
       <c r="X29" s="38" t="s">
         <v>203</v>
       </c>
@@ -8244,6 +8340,9 @@
       </c>
       <c r="U30" s="106" t="s">
         <v>216</v>
+      </c>
+      <c r="V30" s="138" t="s">
+        <v>347</v>
       </c>
       <c r="X30" s="38" t="s">
         <v>203</v>
@@ -8347,6 +8446,9 @@
       <c r="U32" s="103" t="s">
         <v>216</v>
       </c>
+      <c r="V32" s="138" t="s">
+        <v>347</v>
+      </c>
       <c r="X32" s="38" t="s">
         <v>205</v>
       </c>
@@ -8386,6 +8488,9 @@
       </c>
       <c r="U33" s="103" t="s">
         <v>216</v>
+      </c>
+      <c r="V33" s="138" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="34" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -8461,33 +8566,33 @@
       <c r="Z36" s="31"/>
     </row>
     <row r="37" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="117" t="s">
+      <c r="A37" s="112" t="s">
         <v>240</v>
       </c>
-      <c r="B37" s="118"/>
-      <c r="C37" s="118"/>
-      <c r="D37" s="118"/>
-      <c r="E37" s="118"/>
-      <c r="F37" s="118"/>
-      <c r="G37" s="118"/>
-      <c r="H37" s="118"/>
-      <c r="I37" s="118"/>
-      <c r="J37" s="118"/>
-      <c r="K37" s="119"/>
+      <c r="B37" s="113"/>
+      <c r="C37" s="113"/>
+      <c r="D37" s="113"/>
+      <c r="E37" s="113"/>
+      <c r="F37" s="113"/>
+      <c r="G37" s="113"/>
+      <c r="H37" s="113"/>
+      <c r="I37" s="113"/>
+      <c r="J37" s="113"/>
+      <c r="K37" s="114"/>
       <c r="Z37" s="31"/>
     </row>
     <row r="38" spans="1:26" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="120"/>
-      <c r="B38" s="121"/>
-      <c r="C38" s="121"/>
-      <c r="D38" s="121"/>
-      <c r="E38" s="121"/>
-      <c r="F38" s="121"/>
-      <c r="G38" s="121"/>
-      <c r="H38" s="121"/>
-      <c r="I38" s="121"/>
-      <c r="J38" s="121"/>
-      <c r="K38" s="122"/>
+      <c r="A38" s="115"/>
+      <c r="B38" s="116"/>
+      <c r="C38" s="116"/>
+      <c r="D38" s="116"/>
+      <c r="E38" s="116"/>
+      <c r="F38" s="116"/>
+      <c r="G38" s="116"/>
+      <c r="H38" s="116"/>
+      <c r="I38" s="116"/>
+      <c r="J38" s="116"/>
+      <c r="K38" s="117"/>
       <c r="Z38" s="31"/>
     </row>
     <row r="39" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -9551,6 +9656,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="X2:X3"/>
     <mergeCell ref="A37:K38"/>
     <mergeCell ref="O2:O3"/>
@@ -9567,15 +9678,9 @@
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="L2:L3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="Q2:Q3"/>
   </mergeCells>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V20 P4:P5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4:P5">
       <formula1>$W$22:$W$23</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X4:X32">
